--- a/data/outputs/OR_elsevier/64.xlsx
+++ b/data/outputs/OR_elsevier/64.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS64"/>
+  <dimension ref="A1:BU64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84939183242</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84940410986</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1371,6 +1393,12 @@
           <t>2-s2.0-84946012494</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1590,6 +1618,12 @@
           <t>2-s2.0-84939209558</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1801,6 +1835,12 @@
           <t>2-s2.0-84939196304</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2008,6 +2048,12 @@
           <t>2-s2.0-84929580664</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2223,6 +2269,12 @@
           <t>2-s2.0-84946068013</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2436,6 +2488,12 @@
           <t>2-s2.0-84939194811</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2657,6 +2715,12 @@
           <t>2-s2.0-84922584019</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2864,6 +2928,12 @@
           <t>2-s2.0-84946036226</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3088,6 +3158,12 @@
         <is>
           <t>2-s2.0-84946066457</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -3294,6 +3370,12 @@
           <t>2-s2.0-84939134310</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3512,6 +3594,12 @@
         <is>
           <t>2-s2.0-84939135753</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -3716,6 +3804,12 @@
           <t>2-s2.0-84929578528</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3927,6 +4021,12 @@
           <t>2-s2.0-84946077447</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4148,6 +4248,12 @@
           <t>2-s2.0-84946046566</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4355,6 +4461,12 @@
           <t>2-s2.0-84929573320</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4574,6 +4686,12 @@
           <t>2-s2.0-84946023143</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4789,6 +4907,12 @@
           <t>2-s2.0-84939167079</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4996,6 +5120,12 @@
           <t>2-s2.0-84946074124</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5210,6 +5340,12 @@
         <is>
           <t>2-s2.0-84929478454</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -5414,6 +5550,12 @@
           <t>2-s2.0-84929583370</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5627,6 +5769,12 @@
           <t>2-s2.0-84946023301</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5838,6 +5986,12 @@
           <t>2-s2.0-84946042396</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6049,6 +6203,12 @@
           <t>2-s2.0-84929581962</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6264,6 +6424,12 @@
           <t>2-s2.0-84922534036</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6474,6 +6640,12 @@
         <is>
           <t>2-s2.0-84922588968</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -6680,6 +6852,12 @@
           <t>2-s2.0-84946072405</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6897,6 +7075,12 @@
           <t>2-s2.0-84922551937</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7118,6 +7302,12 @@
           <t>2-s2.0-84922483947</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7329,6 +7519,12 @@
           <t>2-s2.0-84939197130</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7546,6 +7742,12 @@
           <t>2-s2.0-84923052387</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7761,6 +7963,12 @@
           <t>2-s2.0-84929576906</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7982,6 +8190,12 @@
           <t>2-s2.0-84946069470</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8193,6 +8407,12 @@
           <t>2-s2.0-84929581854</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8400,6 +8620,12 @@
           <t>2-s2.0-84901646709</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8621,6 +8847,12 @@
           <t>2-s2.0-84929580954</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8832,6 +9064,12 @@
           <t>2-s2.0-84946012734</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9051,6 +9289,12 @@
           <t>2-s2.0-84929578653</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9268,6 +9512,12 @@
           <t>2-s2.0-84939194924</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9475,6 +9725,12 @@
           <t>2-s2.0-84939141553</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9682,6 +9938,12 @@
           <t>2-s2.0-84929576851</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9901,6 +10163,12 @@
           <t>2-s2.0-84929578185</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10116,6 +10384,12 @@
           <t>2-s2.0-84922574449</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10329,6 +10603,12 @@
           <t>2-s2.0-84946020533</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10539,6 +10819,12 @@
         <is>
           <t>2-s2.0-84939211419</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -10745,6 +11031,12 @@
           <t>2-s2.0-84939167239</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10955,6 +11247,12 @@
         <is>
           <t>2-s2.0-84929582500</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -11159,6 +11457,12 @@
           <t>2-s2.0-84922511650</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11370,6 +11674,12 @@
           <t>2-s2.0-84946017510</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11579,6 +11889,12 @@
           <t>2-s2.0-84939196712</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11798,6 +12114,12 @@
           <t>2-s2.0-84939183824</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12009,6 +12331,12 @@
           <t>2-s2.0-84929576409</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12228,6 +12556,12 @@
           <t>2-s2.0-84929581123</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12440,6 +12774,12 @@
         <is>
           <t>2-s2.0-84922570538</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -12646,6 +12986,12 @@
           <t>2-s2.0-84939206428</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12853,6 +13199,12 @@
           <t>2-s2.0-84939151962</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13065,6 +13417,12 @@
         <is>
           <t>2-s2.0-84939197387</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -13271,6 +13629,12 @@
           <t>2-s2.0-84922559910</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13479,6 +13843,12 @@
         <is>
           <t>2-s2.0-84922560002</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -13679,6 +14049,12 @@
           <t>2-s2.0-84946052970</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13883,6 +14259,12 @@
         <is>
           <t>2-s2.0-84939177300</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -14087,6 +14469,12 @@
           <t>2-s2.0-84929573201</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
